--- a/XCustPr/doc/60-11-20/PO002_PO_PR_web_Service.xlsx
+++ b/XCustPr/doc/60-11-20/PO002_PO_PR_web_Service.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ICE_2016\RD\00_PMO_Templates (13-May)\70-Customization\71-Functional Spec\SPEC\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\ice\XCustPr\XCustPr\doc\60-11-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Program_PR__STEP" sheetId="4" r:id="rId1"/>
@@ -1801,9 +1801,6 @@
     <t>po.LINE_NUM po_line_number</t>
   </si>
   <si>
-    <t>po.QUANTITY</t>
-  </si>
-  <si>
     <t>from xcust_pr_tbl PR</t>
   </si>
   <si>
@@ -1832,17 +1829,20 @@
   </si>
   <si>
     <t>กรณีเจอข้อมูลซ้ำ (po_header_id,po_line_id)</t>
+  </si>
+  <si>
+    <t>po.QUANTITY, po.header_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1851,6 +1851,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1891,17 +1899,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1934,9 +1945,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2238,13 +2249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,17 +2281,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2307,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2619,7 +2630,7 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -2682,51 +2693,50 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="28" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.8984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -4264,7 +4274,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4289,17 +4299,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -4311,11 +4321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4323,7 +4333,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4723,6 +4733,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4736,9 +4749,9 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4746,7 +4759,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4754,7 +4767,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4804,9 +4817,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4828,66 +4841,66 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="42.296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="23" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -37638,11 +37651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -37727,37 +37740,37 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
